--- a/ШК-QR список товаров.xlsx
+++ b/ШК-QR список товаров.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>код</t>
   </si>
@@ -49,15 +49,6 @@
     <t>житкость двухкомпонентная от комаров</t>
   </si>
   <si>
-    <t>Москиталл для элекрофумигатора</t>
-  </si>
-  <si>
-    <t>Саше от моли с запахом жасмина (Раптор)</t>
-  </si>
-  <si>
-    <t>ЗАО Инвест Россия (24)</t>
-  </si>
-  <si>
     <t>Пятновыводит. NEON OXI SPRAY 300мл</t>
   </si>
   <si>
@@ -70,18 +61,6 @@
     <t>Медицинские товары</t>
   </si>
   <si>
-    <t>Урологический (мочегонный)</t>
-  </si>
-  <si>
-    <t>сбор сбор лек. пак. бум. 50 г, № 1</t>
-  </si>
-  <si>
-    <t>Компид пластырь от врастающих</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мозолей между пальцами ног №10 </t>
-  </si>
-  <si>
     <t>Ф/ч Тайфун Лотос №30 пакетики</t>
   </si>
   <si>
@@ -94,37 +73,57 @@
     <t>Посуда</t>
   </si>
   <si>
-    <t>ВИЛКИ БИОРАЗЛАГАЕМЫЕ БИО</t>
-  </si>
-  <si>
-    <t>6ШТ АНТЕЛЛА</t>
-  </si>
-  <si>
     <t>Бокалы HS для шампанского 6шт</t>
   </si>
   <si>
     <t>GIPFEL Кастрюля SAUCEPOT 5,4 л (1294)</t>
   </si>
   <si>
-    <t>арт.А263 Сков-да Д260 с пл.</t>
-  </si>
-  <si>
-    <t>руч. и кр.(ровн.дно)</t>
-  </si>
-  <si>
     <t>Скороварка Ока СВ-7010</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Запас</t>
+  </si>
+  <si>
+    <t>Саше от моли с запахом жасмина (Раптор), ЗАО Инвест Россия (24)</t>
+  </si>
+  <si>
+    <t>Урологический (мочегонный), сбор сбор лек. пак. бум. 50 г, № 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компид пластырь от врастающих, мозолей между пальцами ног №10 </t>
+  </si>
+  <si>
+    <t>ВИЛКИ БИОРАЗЛАГАЕМЫЕ БИО 6ШТ АНТЕЛЛА</t>
+  </si>
+  <si>
+    <t>арт.А263 Сков-да Д260 с пл.руч. и кр.(ровн.дно)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,56 +181,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="12" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -570,305 +559,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>4607037435513</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="D2" s="13">
+        <v>235.5</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>4606301000983</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="D3" s="13">
+        <v>276</v>
+      </c>
+      <c r="E3" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>4810093012332</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="D4" s="13">
+        <v>56.2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4601674034894</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="D5" s="13">
+        <v>45</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4606993115422</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="D6" s="13">
+        <v>199.9</v>
+      </c>
+      <c r="E6" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>4606982004973</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
+      <c r="D7" s="13">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4607131424826</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13">
+        <v>109.9</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>9339238000126</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>4607131424826</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13">
+        <v>131</v>
+      </c>
+      <c r="E9" s="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4015400991977</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="13">
+        <v>149.9</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5410076202898</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>9339238000126</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>4015400991977</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="13">
+        <v>320</v>
+      </c>
+      <c r="E11" s="14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>4601498000082</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13">
+        <v>76.8</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>3574660709407</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="E13" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>4823015900044</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>5410076202898</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13">
+        <v>44.1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>4607064971961</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>4601498000082</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13">
+        <v>249.9</v>
+      </c>
+      <c r="E15" s="14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4605113000464</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13">
+        <v>29.9</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>4620768021404</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
+      <c r="D17" s="13">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E17" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4607127001864</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>3574660709407</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13">
+        <v>621.9</v>
+      </c>
+      <c r="E18" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4250195112941</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1129</v>
+      </c>
+      <c r="E19" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>4823045800222</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1399.2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4607129347809</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>4823015900044</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>4607064971961</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>4605113000464</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>4620768021404</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>4607127001864</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>4250195112941</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>4823045800222</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>4607129347809</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="13">
+        <v>789.9</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -982,39 +1074,7 @@
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A25:A26"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
